--- a/LuanNoBoc.xlsx
+++ b/LuanNoBoc.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24334"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hieuxnk1\Documents\App_tu_vi-main\LuanGiaiTuViBacPhai\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tuvi\TuVi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F845D3A4-CD6A-4D57-830B-1B9766EBE5A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1018729A-E255-41D8-B012-432159E3A1FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -13283,27 +13283,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="6">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -13641,10 +13621,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE792A93-0F7F-4F11-B4F9-CDC032EF3078}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A2:G4243"/>
+  <dimension ref="A2:G4242"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+    <sheetView tabSelected="1" topLeftCell="A4240" workbookViewId="0">
+      <selection activeCell="A4250" sqref="A4250"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -47640,17 +47620,11 @@
       <c r="F4242" s="1"/>
       <c r="G4242" s="1"/>
     </row>
-    <row r="4243" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C4243" s="1"/>
-      <c r="D4243" s="1"/>
-      <c r="E4243" s="1"/>
-      <c r="F4243" s="3"/>
-    </row>
   </sheetData>
   <autoFilter ref="A2:D4242" xr:uid="{AE792A93-0F7F-4F11-B4F9-CDC032EF3078}"/>
   <dataConsolidate/>
   <conditionalFormatting sqref="A1:B1048576">
-    <cfRule type="duplicateValues" dxfId="5" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/LuanNoBoc.xlsx
+++ b/LuanNoBoc.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24334"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tuvi\TuVi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Tuvi\TuVi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1018729A-E255-41D8-B012-432159E3A1FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6907912-D924-40D0-9DEF-5551CC7D7481}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10611" uniqueCount="4400">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10621" uniqueCount="4405">
   <si>
     <t>Vũ Khúc và Tham Lang đồng cung tại Mùi</t>
   </si>
@@ -13233,6 +13233,21 @@
   </si>
   <si>
     <t>Bị người dưới phản bội, hoặc bị bạn bè hãm hại hoặc trở mặt và có dính đến pháp luật, lao lý.</t>
+  </si>
+  <si>
+    <t>Vị trí cung Nô Bộc so với ngũ hành Mệnh: Bình thường</t>
+  </si>
+  <si>
+    <t>Vị trí cung Nô Bộc so với ngũ hành Mệnh: Tuyệt địa</t>
+  </si>
+  <si>
+    <t>Vị trí cung Nô Bộc so với ngũ hành Mệnh: Sinh địa</t>
+  </si>
+  <si>
+    <t>Vị trí cung Nô Bộc so với ngũ hành Mệnh: Vượng địa</t>
+  </si>
+  <si>
+    <t>Vị trí cung Nô Bộc so với ngũ hành Mệnh: Bại địa</t>
   </si>
 </sst>
 </file>
@@ -13283,7 +13298,27 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="8">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -13621,10 +13656,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE792A93-0F7F-4F11-B4F9-CDC032EF3078}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A2:G4242"/>
+  <dimension ref="A2:G4247"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4240" workbookViewId="0">
-      <selection activeCell="A4250" sqref="A4250"/>
+      <selection activeCell="B4250" sqref="B4250"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17208,7 +17243,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="449" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A449" s="1" t="s">
         <v>485</v>
       </c>
@@ -17216,7 +17251,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="450" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A450" s="1" t="s">
         <v>486</v>
       </c>
@@ -25664,7 +25699,7 @@
         <v>1520</v>
       </c>
     </row>
-    <row r="1506" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="1506" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A1506" s="1" t="s">
         <v>1521</v>
       </c>
@@ -27896,7 +27931,7 @@
         <v>4393</v>
       </c>
     </row>
-    <row r="1785" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="1785" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A1785" s="1" t="s">
         <v>1772</v>
       </c>
@@ -27904,7 +27939,7 @@
         <v>4392</v>
       </c>
     </row>
-    <row r="1786" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="1786" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A1786" s="1" t="s">
         <v>1773</v>
       </c>
@@ -47620,11 +47655,55 @@
       <c r="F4242" s="1"/>
       <c r="G4242" s="1"/>
     </row>
+    <row r="4243" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4243" s="1" t="s">
+        <v>4400</v>
+      </c>
+      <c r="B4243" s="1" t="s">
+        <v>4400</v>
+      </c>
+    </row>
+    <row r="4244" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4244" s="1" t="s">
+        <v>4401</v>
+      </c>
+      <c r="B4244" s="1" t="s">
+        <v>4401</v>
+      </c>
+    </row>
+    <row r="4245" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4245" s="1" t="s">
+        <v>4402</v>
+      </c>
+      <c r="B4245" s="1" t="s">
+        <v>4402</v>
+      </c>
+    </row>
+    <row r="4246" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4246" s="1" t="s">
+        <v>4403</v>
+      </c>
+      <c r="B4246" s="1" t="s">
+        <v>4403</v>
+      </c>
+    </row>
+    <row r="4247" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4247" s="1" t="s">
+        <v>4404</v>
+      </c>
+      <c r="B4247" s="1" t="s">
+        <v>4404</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A2:D4242" xr:uid="{AE792A93-0F7F-4F11-B4F9-CDC032EF3078}"/>
   <dataConsolidate/>
-  <conditionalFormatting sqref="A1:B1048576">
-    <cfRule type="duplicateValues" dxfId="5" priority="2"/>
+  <conditionalFormatting sqref="A1:B4242 A4248:B1048576">
+    <cfRule type="duplicateValues" dxfId="7" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A4243:B4247">
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -56155,15 +56234,15 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A586:A1064">
-    <cfRule type="duplicateValues" dxfId="4" priority="4"/>
-    <cfRule type="duplicateValues" dxfId="3" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:B1064">
-    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B586:B1064">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/LuanNoBoc.xlsx
+++ b/LuanNoBoc.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24334"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Tuvi\TuVi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tuvi\TuVi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6907912-D924-40D0-9DEF-5551CC7D7481}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBA62685-2D77-43D0-ABBB-ECC75CDA706F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10621" uniqueCount="4405">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10627" uniqueCount="4411">
   <si>
     <t>Vũ Khúc và Tham Lang đồng cung tại Mùi</t>
   </si>
@@ -13034,9 +13034,6 @@
     <t>Bạn bè, đồng nghiệp, cấp dưới thông minh, tốt bụng, hay giúp đỡ mình. Kẻ nào có ý đồ hãm hại mình khó lòng được toại ý, thường bị ngăn trở.</t>
   </si>
   <si>
-    <t>Được người bạn bạn, đồng nghiệp cho tiền bạc, may mắn.</t>
-  </si>
-  <si>
     <t>Bạn bè có quyền hành, nhờ bạn bè làm nên. Bạn bè nhiều người có quyền chức, địa vị xã hội, càng hội nhiều cát tinh thì quyền hành càng cao. Bạn hay bị bạn bè, đồng nghiệp, cấp dưới vượt quyền, o ép, chỉ đạo, thích chi phối bản thân mình.</t>
   </si>
   <si>
@@ -13248,6 +13245,27 @@
   </si>
   <si>
     <t>Vị trí cung Nô Bộc so với ngũ hành Mệnh: Bại địa</t>
+  </si>
+  <si>
+    <t>Được người bạn bạn, đồng nghiệp cho tiền bạc, may mắn. Hóa Lộc có hàm nghĩa là "nhiều", vì vậy trường hợp cung nô bộc có Hóa Lộc là chủ về mệnh tạo có bạn bè qua lại nhiều, bản thân mệnh tạo cũng thích giao du bạn bè. Nói một cách khác, cá tính hướng ngoại.</t>
+  </si>
+  <si>
+    <t>Vì Hóa Lộc ở cung nô bộc, nên sự bày tỏ tình cảm, kì vọng đều xảy ra ở cung nô bộc. Về tình cảm, bản thân mệnh tạo đối xử khá tốt với bạn bè, cũng sẽ đơn phương cho rằng bạn bè sẽ đối xử tốt giống như mình. Hóa Lộc ở cung nô bộc, là mệnh tạo sẽ mang kì vọng, mộng tưởng của mình kí thác ở bạn bè, và hi vọng họ trợ giúp. Nếu cung nô bộc phi hóa có lợi, thì mệnh tạo sẽ có được mối quan hệ đặc biệt, gặp quý nhân, họ sẽ nâng đỡ mệnh tạo. Vì Hóa Lộc khác với Hóa Khoa, Hóa Lộc chủ về tình cảm, và liên quan đến tiền bạc, vật chất; cho nên bạn bè đối với mệnh tạo, nếu muốn ra tay trợ giúp, tất sẽ có thực chất, chớ không phải chỉ ủng hộ về mặt tinh thần.</t>
+  </si>
+  <si>
+    <t>Nếu so sánh với mệnh tạo, Hóa Lộc ở cung nô bộc là bạn bè đa tình hơn, có tình người hơn mệnh tạo. Ngược lại, bản thân mệnh tạo không giỏi biểu đạt sự nhiệt tình, hoặc ngôn từ không đạt ý, nhưng đối với bạn bè cũng thường âm thầm trợ giúp. Hóa Lộc ở cung nô bộc chủ về bạn bè đa tình, những người mệnh tạo giao du thiên nặng cảm tính hơn lí tính; hơn nữa, phần nhiều là người có tình cảm, nhưng không chủ về có sự chân tình giữa bạn bè, mà phải xem cung nô bộc phi hóa thế nào mới định được.</t>
+  </si>
+  <si>
+    <t>Cung nô bộc là "tha cung", dù cung nô bộc phi hóa có ý tượng trợ lực cho mệnh tạo, bình thường đúng là bạn bè có sự giúp đỡ đắc lực, nhưng một khi Hóa Lộc chuyển sang Hóa Kị, thì hi vọng sẽ tiêu tan. về tình cảm có thể giữa bạn bè dễ xảy ra chuyên tranh chấp khó giải quyết, hoặc bạn bè được nâng cấp thành "bạn bè tốt", nhưng "bạn bè ăn nhậu" cũng không ít.</t>
+  </si>
+  <si>
+    <t>Vì cung nô bộc là cung vị khí số của cung phụ mẫu, mà cung phụ mẫu có thể xem về học hành, một khi cung nô bộc có Hóa Lộc, cộng thêm các luận thuật ở trên về cá tính của mệnh tạo, thì việc học hành thường không được chuyên tâm, rất dễ có hành vi và thường hay suy nghĩ về chuyện yêu đương tình trường, ảnh hướng đến việc học hành. Cung nô bộc là cung vị khí số của cung phụ mẫu, Hóa Lộc ở cung nô bộc, có thể luận cha mẹ có nhiệt tâm và đa tình, cha mẹ sống với nhau hòa hợp; nhưng cung phụ mẫu còn có thể dùng để luận về cấp trên trong môi trường làm việc, trường hợp này có thể luận cá tính của cấp trên không tệ, hoặc có chiếu cố mệnh tạo.</t>
+  </si>
+  <si>
+    <t>Tuyến "huynh nô" có thể là điềm báo tai hại bất ngờ. Trường hợp Hóa Lộc ở cung nô bộc, có thể sẽ bị Hóa Kị phá hoại, lúc đại vận hình thành tình huống Hóa Lộc chuyển sang Hóa Kị, thành "Song Kị" xung cung huynh đệ, thường thường có ẩn chứa nguy cơ.</t>
+  </si>
+  <si>
+    <t>Lúc cung nô bộc làm cung vị biểu hiện của cung tử nữ, có thể luận là con cái hòa hợp với mệnh tạo. Ngoài ra, còn có thể đoán về biểu hiện hợp tác. Hóa Lộc ở cung nô bộc chỉ chủ về hiện tượng bên ngoài của việc hợp tác làm ăn, muốn xem tình hình thu lợi thế nào, cần phải xem phối hợp cung nô bộc và tam phương của nó mới có thể định được tình hình cát hung của việc hợp tác.</t>
   </si>
 </sst>
 </file>
@@ -13656,15 +13674,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE792A93-0F7F-4F11-B4F9-CDC032EF3078}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A2:G4247"/>
+  <dimension ref="A2:H4247"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4240" workbookViewId="0">
-      <selection activeCell="B4250" sqref="B4250"/>
+    <sheetView tabSelected="1" topLeftCell="A1572" workbookViewId="0">
+      <selection activeCell="E1575" sqref="E1575"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="59.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="44.85546875" customWidth="1"/>
+    <col min="4" max="8" width="34.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -13672,7 +13692,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>4386</v>
+        <v>4385</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -17243,7 +17263,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="449" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A449" s="1" t="s">
         <v>485</v>
       </c>
@@ -17251,7 +17271,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="450" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A450" s="1" t="s">
         <v>486</v>
       </c>
@@ -25699,7 +25719,7 @@
         <v>1520</v>
       </c>
     </row>
-    <row r="1506" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="1506" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1506" s="1" t="s">
         <v>1521</v>
       </c>
@@ -25952,7 +25972,7 @@
         <v>27</v>
       </c>
       <c r="B1537" s="1" t="s">
-        <v>4387</v>
+        <v>4386</v>
       </c>
     </row>
     <row r="1538" spans="1:2" x14ac:dyDescent="0.25">
@@ -25984,7 +26004,7 @@
         <v>31</v>
       </c>
       <c r="B1541" s="1" t="s">
-        <v>4388</v>
+        <v>4387</v>
       </c>
     </row>
     <row r="1542" spans="1:2" x14ac:dyDescent="0.25">
@@ -26000,7 +26020,7 @@
         <v>33</v>
       </c>
       <c r="B1543" s="1" t="s">
-        <v>4393</v>
+        <v>4392</v>
       </c>
     </row>
     <row r="1544" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -26080,7 +26100,7 @@
         <v>43</v>
       </c>
       <c r="B1553" s="1" t="s">
-        <v>4385</v>
+        <v>4384</v>
       </c>
     </row>
     <row r="1554" spans="1:2" x14ac:dyDescent="0.25">
@@ -26203,7 +26223,7 @@
         <v>4324</v>
       </c>
     </row>
-    <row r="1569" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="1569" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A1569" s="1" t="s">
         <v>1565</v>
       </c>
@@ -26211,7 +26231,7 @@
         <v>4325</v>
       </c>
     </row>
-    <row r="1570" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+    <row r="1570" spans="1:8" ht="105" x14ac:dyDescent="0.25">
       <c r="A1570" s="1" t="s">
         <v>1566</v>
       </c>
@@ -26219,7 +26239,7 @@
         <v>4326</v>
       </c>
     </row>
-    <row r="1571" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+    <row r="1571" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A1571" s="1" t="s">
         <v>1567</v>
       </c>
@@ -26227,7 +26247,7 @@
         <v>4327</v>
       </c>
     </row>
-    <row r="1572" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="1572" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A1572" s="1" t="s">
         <v>1568</v>
       </c>
@@ -26235,7 +26255,7 @@
         <v>4328</v>
       </c>
     </row>
-    <row r="1573" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1573" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1573" s="1" t="s">
         <v>1569</v>
       </c>
@@ -26243,7 +26263,7 @@
         <v>4329</v>
       </c>
     </row>
-    <row r="1574" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1574" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1574" s="1" t="s">
         <v>1570</v>
       </c>
@@ -26251,7 +26271,7 @@
         <v>4329</v>
       </c>
     </row>
-    <row r="1575" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="1575" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A1575" s="1" t="s">
         <v>1571</v>
       </c>
@@ -26259,7 +26279,7 @@
         <v>4331</v>
       </c>
     </row>
-    <row r="1576" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="1576" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A1576" s="1" t="s">
         <v>1572</v>
       </c>
@@ -26267,7 +26287,7 @@
         <v>4330</v>
       </c>
     </row>
-    <row r="1577" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="1577" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A1577" s="1" t="s">
         <v>1573</v>
       </c>
@@ -26275,7 +26295,7 @@
         <v>4332</v>
       </c>
     </row>
-    <row r="1578" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="1578" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A1578" s="1" t="s">
         <v>1574</v>
       </c>
@@ -26283,52 +26303,70 @@
         <v>4332</v>
       </c>
     </row>
-    <row r="1579" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1579" spans="1:8" ht="285" x14ac:dyDescent="0.25">
       <c r="A1579" s="1" t="s">
         <v>1575</v>
       </c>
       <c r="B1579" s="1" t="s">
-        <v>4333</v>
-      </c>
-    </row>
-    <row r="1580" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+        <v>4404</v>
+      </c>
+      <c r="C1579" s="1" t="s">
+        <v>4405</v>
+      </c>
+      <c r="D1579" s="1" t="s">
+        <v>4406</v>
+      </c>
+      <c r="E1579" s="1" t="s">
+        <v>4407</v>
+      </c>
+      <c r="F1579" s="1" t="s">
+        <v>4408</v>
+      </c>
+      <c r="G1579" s="1" t="s">
+        <v>4409</v>
+      </c>
+      <c r="H1579" s="1" t="s">
+        <v>4410</v>
+      </c>
+    </row>
+    <row r="1580" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A1580" s="1" t="s">
         <v>1576</v>
       </c>
       <c r="B1580" s="1" t="s">
-        <v>4334</v>
-      </c>
-    </row>
-    <row r="1581" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>4333</v>
+      </c>
+    </row>
+    <row r="1581" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A1581" s="1" t="s">
         <v>1577</v>
       </c>
       <c r="B1581" s="1" t="s">
-        <v>4335</v>
-      </c>
-    </row>
-    <row r="1582" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+        <v>4334</v>
+      </c>
+    </row>
+    <row r="1582" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A1582" s="1" t="s">
         <v>1578</v>
       </c>
       <c r="B1582" s="1" t="s">
-        <v>4337</v>
-      </c>
-    </row>
-    <row r="1583" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+        <v>4336</v>
+      </c>
+    </row>
+    <row r="1583" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A1583" s="1" t="s">
         <v>1579</v>
       </c>
       <c r="B1583" s="1" t="s">
-        <v>4336</v>
-      </c>
-    </row>
-    <row r="1584" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>4335</v>
+      </c>
+    </row>
+    <row r="1584" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A1584" s="1" t="s">
         <v>1580</v>
       </c>
       <c r="B1584" s="1" t="s">
-        <v>4339</v>
+        <v>4338</v>
       </c>
     </row>
     <row r="1585" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -26336,7 +26374,7 @@
         <v>1581</v>
       </c>
       <c r="B1585" s="1" t="s">
-        <v>4338</v>
+        <v>4337</v>
       </c>
     </row>
     <row r="1586" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -26344,7 +26382,7 @@
         <v>1582</v>
       </c>
       <c r="B1586" s="1" t="s">
-        <v>4340</v>
+        <v>4339</v>
       </c>
     </row>
     <row r="1587" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -26352,7 +26390,7 @@
         <v>1583</v>
       </c>
       <c r="B1587" s="1" t="s">
-        <v>4340</v>
+        <v>4339</v>
       </c>
     </row>
     <row r="1588" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -26360,7 +26398,7 @@
         <v>1584</v>
       </c>
       <c r="B1588" s="1" t="s">
-        <v>4341</v>
+        <v>4340</v>
       </c>
     </row>
     <row r="1589" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -26368,7 +26406,7 @@
         <v>1585</v>
       </c>
       <c r="B1589" s="1" t="s">
-        <v>4341</v>
+        <v>4340</v>
       </c>
     </row>
     <row r="1590" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -26376,7 +26414,7 @@
         <v>1586</v>
       </c>
       <c r="B1590" s="1" t="s">
-        <v>4342</v>
+        <v>4341</v>
       </c>
     </row>
     <row r="1591" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -26384,7 +26422,7 @@
         <v>1588</v>
       </c>
       <c r="B1591" s="1" t="s">
-        <v>4343</v>
+        <v>4342</v>
       </c>
     </row>
     <row r="1592" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -26392,7 +26430,7 @@
         <v>1587</v>
       </c>
       <c r="B1592" s="1" t="s">
-        <v>4343</v>
+        <v>4342</v>
       </c>
     </row>
     <row r="1593" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -26400,7 +26438,7 @@
         <v>1589</v>
       </c>
       <c r="B1593" s="1" t="s">
-        <v>4344</v>
+        <v>4343</v>
       </c>
     </row>
     <row r="1594" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -26408,7 +26446,7 @@
         <v>1590</v>
       </c>
       <c r="B1594" s="1" t="s">
-        <v>4345</v>
+        <v>4344</v>
       </c>
     </row>
     <row r="1595" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -26416,7 +26454,7 @@
         <v>1591</v>
       </c>
       <c r="B1595" s="1" t="s">
-        <v>4345</v>
+        <v>4344</v>
       </c>
     </row>
     <row r="1596" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -26424,7 +26462,7 @@
         <v>1592</v>
       </c>
       <c r="B1596" s="1" t="s">
-        <v>4346</v>
+        <v>4345</v>
       </c>
     </row>
     <row r="1597" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -26432,7 +26470,7 @@
         <v>1593</v>
       </c>
       <c r="B1597" s="1" t="s">
-        <v>4347</v>
+        <v>4346</v>
       </c>
     </row>
     <row r="1598" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -26440,7 +26478,7 @@
         <v>1594</v>
       </c>
       <c r="B1598" s="1" t="s">
-        <v>4348</v>
+        <v>4347</v>
       </c>
     </row>
     <row r="1599" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -26448,7 +26486,7 @@
         <v>1595</v>
       </c>
       <c r="B1599" s="1" t="s">
-        <v>4349</v>
+        <v>4348</v>
       </c>
     </row>
     <row r="1600" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -26456,7 +26494,7 @@
         <v>1806</v>
       </c>
       <c r="B1600" s="1" t="s">
-        <v>4350</v>
+        <v>4349</v>
       </c>
     </row>
     <row r="1601" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -26464,7 +26502,7 @@
         <v>1598</v>
       </c>
       <c r="B1601" s="1" t="s">
-        <v>4351</v>
+        <v>4350</v>
       </c>
     </row>
     <row r="1602" spans="1:2" x14ac:dyDescent="0.25">
@@ -26480,7 +26518,7 @@
         <v>1807</v>
       </c>
       <c r="B1603" s="1" t="s">
-        <v>4352</v>
+        <v>4351</v>
       </c>
     </row>
     <row r="1604" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -26488,7 +26526,7 @@
         <v>1808</v>
       </c>
       <c r="B1604" s="1" t="s">
-        <v>4353</v>
+        <v>4352</v>
       </c>
     </row>
     <row r="1605" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -26496,7 +26534,7 @@
         <v>1809</v>
       </c>
       <c r="B1605" s="1" t="s">
-        <v>4354</v>
+        <v>4353</v>
       </c>
     </row>
     <row r="1606" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -26504,7 +26542,7 @@
         <v>1810</v>
       </c>
       <c r="B1606" s="1" t="s">
-        <v>4355</v>
+        <v>4354</v>
       </c>
     </row>
     <row r="1607" spans="1:2" x14ac:dyDescent="0.25">
@@ -26512,7 +26550,7 @@
         <v>1811</v>
       </c>
       <c r="B1607" s="1" t="s">
-        <v>4356</v>
+        <v>4355</v>
       </c>
     </row>
     <row r="1608" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -26528,7 +26566,7 @@
         <v>1813</v>
       </c>
       <c r="B1609" s="1" t="s">
-        <v>4357</v>
+        <v>4356</v>
       </c>
     </row>
     <row r="1610" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -26536,7 +26574,7 @@
         <v>1596</v>
       </c>
       <c r="B1610" s="1" t="s">
-        <v>4358</v>
+        <v>4357</v>
       </c>
     </row>
     <row r="1611" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -26544,7 +26582,7 @@
         <v>1814</v>
       </c>
       <c r="B1611" s="1" t="s">
-        <v>4359</v>
+        <v>4358</v>
       </c>
     </row>
     <row r="1612" spans="1:2" x14ac:dyDescent="0.25">
@@ -27880,7 +27918,7 @@
         <v>1765</v>
       </c>
       <c r="B1778" s="1" t="s">
-        <v>4390</v>
+        <v>4389</v>
       </c>
     </row>
     <row r="1779" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -27888,7 +27926,7 @@
         <v>1766</v>
       </c>
       <c r="B1779" s="1" t="s">
-        <v>4390</v>
+        <v>4389</v>
       </c>
     </row>
     <row r="1780" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -27896,7 +27934,7 @@
         <v>1767</v>
       </c>
       <c r="B1780" s="1" t="s">
-        <v>4382</v>
+        <v>4381</v>
       </c>
     </row>
     <row r="1781" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -27904,7 +27942,7 @@
         <v>1768</v>
       </c>
       <c r="B1781" s="1" t="s">
-        <v>4382</v>
+        <v>4381</v>
       </c>
     </row>
     <row r="1782" spans="1:2" x14ac:dyDescent="0.25">
@@ -27912,7 +27950,7 @@
         <v>1769</v>
       </c>
       <c r="B1782" s="1" t="s">
-        <v>4391</v>
+        <v>4390</v>
       </c>
     </row>
     <row r="1783" spans="1:2" x14ac:dyDescent="0.25">
@@ -27920,7 +27958,7 @@
         <v>1770</v>
       </c>
       <c r="B1783" s="1" t="s">
-        <v>4391</v>
+        <v>4390</v>
       </c>
     </row>
     <row r="1784" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -27928,23 +27966,23 @@
         <v>1771</v>
       </c>
       <c r="B1784" s="1" t="s">
-        <v>4393</v>
-      </c>
-    </row>
-    <row r="1785" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+        <v>4392</v>
+      </c>
+    </row>
+    <row r="1785" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A1785" s="1" t="s">
         <v>1772</v>
       </c>
       <c r="B1785" s="1" t="s">
-        <v>4392</v>
-      </c>
-    </row>
-    <row r="1786" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+        <v>4391</v>
+      </c>
+    </row>
+    <row r="1786" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A1786" s="1" t="s">
         <v>1773</v>
       </c>
       <c r="B1786" s="1" t="s">
-        <v>4392</v>
+        <v>4391</v>
       </c>
     </row>
     <row r="1787" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -27952,7 +27990,7 @@
         <v>1774</v>
       </c>
       <c r="B1787" s="1" t="s">
-        <v>4381</v>
+        <v>4380</v>
       </c>
     </row>
     <row r="1788" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -27960,7 +27998,7 @@
         <v>1775</v>
       </c>
       <c r="B1788" s="1" t="s">
-        <v>4381</v>
+        <v>4380</v>
       </c>
     </row>
     <row r="1789" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -27968,7 +28006,7 @@
         <v>1776</v>
       </c>
       <c r="B1789" s="1" t="s">
-        <v>4384</v>
+        <v>4383</v>
       </c>
     </row>
     <row r="1790" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -27976,7 +28014,7 @@
         <v>1777</v>
       </c>
       <c r="B1790" s="1" t="s">
-        <v>4384</v>
+        <v>4383</v>
       </c>
     </row>
     <row r="1791" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -27984,7 +28022,7 @@
         <v>1778</v>
       </c>
       <c r="B1791" s="1" t="s">
-        <v>4388</v>
+        <v>4387</v>
       </c>
     </row>
     <row r="1792" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -27992,7 +28030,7 @@
         <v>1779</v>
       </c>
       <c r="B1792" s="1" t="s">
-        <v>4383</v>
+        <v>4382</v>
       </c>
     </row>
     <row r="1793" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -28000,7 +28038,7 @@
         <v>1780</v>
       </c>
       <c r="B1793" s="1" t="s">
-        <v>4383</v>
+        <v>4382</v>
       </c>
     </row>
     <row r="1794" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -28008,7 +28046,7 @@
         <v>1781</v>
       </c>
       <c r="B1794" s="1" t="s">
-        <v>4387</v>
+        <v>4386</v>
       </c>
     </row>
     <row r="1795" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -28016,7 +28054,7 @@
         <v>1782</v>
       </c>
       <c r="B1795" s="1" t="s">
-        <v>4376</v>
+        <v>4375</v>
       </c>
     </row>
     <row r="1796" spans="1:2" x14ac:dyDescent="0.25">
@@ -28024,7 +28062,7 @@
         <v>1783</v>
       </c>
       <c r="B1796" s="1" t="s">
-        <v>4377</v>
+        <v>4376</v>
       </c>
     </row>
     <row r="1797" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -28032,7 +28070,7 @@
         <v>1784</v>
       </c>
       <c r="B1797" s="1" t="s">
-        <v>4386</v>
+        <v>4385</v>
       </c>
     </row>
     <row r="1798" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -28040,7 +28078,7 @@
         <v>1785</v>
       </c>
       <c r="B1798" s="1" t="s">
-        <v>4374</v>
+        <v>4373</v>
       </c>
     </row>
     <row r="1799" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -28048,7 +28086,7 @@
         <v>1786</v>
       </c>
       <c r="B1799" s="1" t="s">
-        <v>4374</v>
+        <v>4373</v>
       </c>
     </row>
     <row r="1800" spans="1:2" x14ac:dyDescent="0.25">
@@ -28056,7 +28094,7 @@
         <v>1787</v>
       </c>
       <c r="B1800" s="1" t="s">
-        <v>4394</v>
+        <v>4393</v>
       </c>
     </row>
     <row r="1801" spans="1:2" x14ac:dyDescent="0.25">
@@ -28064,7 +28102,7 @@
         <v>1788</v>
       </c>
       <c r="B1801" s="1" t="s">
-        <v>4394</v>
+        <v>4393</v>
       </c>
     </row>
     <row r="1802" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -28072,7 +28110,7 @@
         <v>1789</v>
       </c>
       <c r="B1802" s="1" t="s">
-        <v>4395</v>
+        <v>4394</v>
       </c>
     </row>
     <row r="1803" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -28080,7 +28118,7 @@
         <v>1790</v>
       </c>
       <c r="B1803" s="1" t="s">
-        <v>4395</v>
+        <v>4394</v>
       </c>
     </row>
     <row r="1804" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -28088,7 +28126,7 @@
         <v>1791</v>
       </c>
       <c r="B1804" s="1" t="s">
-        <v>4385</v>
+        <v>4384</v>
       </c>
     </row>
     <row r="1805" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -28096,7 +28134,7 @@
         <v>1792</v>
       </c>
       <c r="B1805" s="1" t="s">
-        <v>4389</v>
+        <v>4388</v>
       </c>
     </row>
     <row r="1806" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -28104,7 +28142,7 @@
         <v>1793</v>
       </c>
       <c r="B1806" s="1" t="s">
-        <v>4389</v>
+        <v>4388</v>
       </c>
     </row>
     <row r="1807" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -28112,7 +28150,7 @@
         <v>1794</v>
       </c>
       <c r="B1807" s="1" t="s">
-        <v>4375</v>
+        <v>4374</v>
       </c>
     </row>
     <row r="1808" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -28120,7 +28158,7 @@
         <v>1795</v>
       </c>
       <c r="B1808" s="1" t="s">
-        <v>4375</v>
+        <v>4374</v>
       </c>
     </row>
     <row r="1809" spans="1:2" x14ac:dyDescent="0.25">
@@ -28128,7 +28166,7 @@
         <v>1796</v>
       </c>
       <c r="B1809" s="1" t="s">
-        <v>4396</v>
+        <v>4395</v>
       </c>
     </row>
     <row r="1810" spans="1:2" x14ac:dyDescent="0.25">
@@ -28136,7 +28174,7 @@
         <v>1797</v>
       </c>
       <c r="B1810" s="1" t="s">
-        <v>4396</v>
+        <v>4395</v>
       </c>
     </row>
     <row r="1811" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -28144,7 +28182,7 @@
         <v>1798</v>
       </c>
       <c r="B1811" s="1" t="s">
-        <v>4379</v>
+        <v>4378</v>
       </c>
     </row>
     <row r="1812" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -28152,7 +28190,7 @@
         <v>1799</v>
       </c>
       <c r="B1812" s="1" t="s">
-        <v>4379</v>
+        <v>4378</v>
       </c>
     </row>
     <row r="1813" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -28160,7 +28198,7 @@
         <v>1800</v>
       </c>
       <c r="B1813" s="1" t="s">
-        <v>4397</v>
+        <v>4396</v>
       </c>
     </row>
     <row r="1814" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -28168,7 +28206,7 @@
         <v>1801</v>
       </c>
       <c r="B1814" s="1" t="s">
-        <v>4397</v>
+        <v>4396</v>
       </c>
     </row>
     <row r="1815" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -28176,7 +28214,7 @@
         <v>1802</v>
       </c>
       <c r="B1815" s="1" t="s">
-        <v>4398</v>
+        <v>4397</v>
       </c>
     </row>
     <row r="1816" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -28184,7 +28222,7 @@
         <v>1803</v>
       </c>
       <c r="B1816" s="1" t="s">
-        <v>4398</v>
+        <v>4397</v>
       </c>
     </row>
     <row r="1817" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -28192,7 +28230,7 @@
         <v>1804</v>
       </c>
       <c r="B1817" s="1" t="s">
-        <v>4399</v>
+        <v>4398</v>
       </c>
     </row>
     <row r="1818" spans="1:2" x14ac:dyDescent="0.25">
@@ -28720,7 +28758,7 @@
         <v>1879</v>
       </c>
       <c r="B1883" s="1" t="s">
-        <v>4360</v>
+        <v>4359</v>
       </c>
     </row>
     <row r="1884" spans="1:2" x14ac:dyDescent="0.25">
@@ -28744,7 +28782,7 @@
         <v>1882</v>
       </c>
       <c r="B1886" s="1" t="s">
-        <v>4361</v>
+        <v>4360</v>
       </c>
     </row>
     <row r="1887" spans="1:2" x14ac:dyDescent="0.25">
@@ -28752,7 +28790,7 @@
         <v>1883</v>
       </c>
       <c r="B1887" s="1" t="s">
-        <v>4362</v>
+        <v>4361</v>
       </c>
     </row>
     <row r="1888" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -28760,7 +28798,7 @@
         <v>1884</v>
       </c>
       <c r="B1888" s="1" t="s">
-        <v>4363</v>
+        <v>4362</v>
       </c>
     </row>
     <row r="1889" spans="1:2" x14ac:dyDescent="0.25">
@@ -28792,7 +28830,7 @@
         <v>1888</v>
       </c>
       <c r="B1892" s="1" t="s">
-        <v>4364</v>
+        <v>4363</v>
       </c>
     </row>
     <row r="1893" spans="1:2" x14ac:dyDescent="0.25">
@@ -28816,7 +28854,7 @@
         <v>1891</v>
       </c>
       <c r="B1895" s="1" t="s">
-        <v>4365</v>
+        <v>4364</v>
       </c>
     </row>
     <row r="1896" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -28824,7 +28862,7 @@
         <v>1892</v>
       </c>
       <c r="B1896" s="1" t="s">
-        <v>4366</v>
+        <v>4365</v>
       </c>
     </row>
     <row r="1897" spans="1:2" x14ac:dyDescent="0.25">
@@ -28840,7 +28878,7 @@
         <v>1894</v>
       </c>
       <c r="B1898" s="1" t="s">
-        <v>4367</v>
+        <v>4366</v>
       </c>
     </row>
     <row r="1899" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -28848,7 +28886,7 @@
         <v>1895</v>
       </c>
       <c r="B1899" s="1" t="s">
-        <v>4368</v>
+        <v>4367</v>
       </c>
     </row>
     <row r="1900" spans="1:2" x14ac:dyDescent="0.25">
@@ -28888,7 +28926,7 @@
         <v>1900</v>
       </c>
       <c r="B1904" s="1" t="s">
-        <v>4369</v>
+        <v>4368</v>
       </c>
     </row>
     <row r="1905" spans="1:2" x14ac:dyDescent="0.25">
@@ -28928,7 +28966,7 @@
         <v>1905</v>
       </c>
       <c r="B1909" s="1" t="s">
-        <v>4370</v>
+        <v>4369</v>
       </c>
     </row>
     <row r="1910" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -28936,7 +28974,7 @@
         <v>1906</v>
       </c>
       <c r="B1910" s="1" t="s">
-        <v>4371</v>
+        <v>4370</v>
       </c>
     </row>
     <row r="1911" spans="1:2" x14ac:dyDescent="0.25">
@@ -28976,7 +29014,7 @@
         <v>1911</v>
       </c>
       <c r="B1915" s="1" t="s">
-        <v>4372</v>
+        <v>4371</v>
       </c>
     </row>
     <row r="1916" spans="1:2" x14ac:dyDescent="0.25">
@@ -29112,7 +29150,7 @@
         <v>1928</v>
       </c>
       <c r="B1932" s="1" t="s">
-        <v>4373</v>
+        <v>4372</v>
       </c>
     </row>
     <row r="1933" spans="1:2" x14ac:dyDescent="0.25">
@@ -47499,7 +47537,7 @@
         <v>2000</v>
       </c>
       <c r="B4230" s="1" t="s">
-        <v>4374</v>
+        <v>4373</v>
       </c>
       <c r="C4230" s="1"/>
       <c r="D4230" s="1"/>
@@ -47511,7 +47549,7 @@
         <v>1998</v>
       </c>
       <c r="B4231" s="1" t="s">
-        <v>4378</v>
+        <v>4377</v>
       </c>
       <c r="C4231" s="1"/>
       <c r="D4231" s="1"/>
@@ -47523,7 +47561,7 @@
         <v>2003</v>
       </c>
       <c r="B4232" s="1" t="s">
-        <v>4375</v>
+        <v>4374</v>
       </c>
       <c r="C4232" s="1"/>
       <c r="D4232" s="1"/>
@@ -47536,7 +47574,7 @@
         <v>2004</v>
       </c>
       <c r="B4233" s="1" t="s">
-        <v>4379</v>
+        <v>4378</v>
       </c>
       <c r="C4233" s="1"/>
       <c r="D4233" s="1"/>
@@ -47548,7 +47586,7 @@
         <v>1993</v>
       </c>
       <c r="B4234" s="1" t="s">
-        <v>4380</v>
+        <v>4379</v>
       </c>
       <c r="C4234" s="1"/>
       <c r="D4234" s="1"/>
@@ -47561,7 +47599,7 @@
         <v>1992</v>
       </c>
       <c r="B4235" s="1" t="s">
-        <v>4382</v>
+        <v>4381</v>
       </c>
       <c r="C4235" s="1"/>
       <c r="D4235" s="1"/>
@@ -47573,7 +47611,7 @@
         <v>1996</v>
       </c>
       <c r="B4236" s="1" t="s">
-        <v>4383</v>
+        <v>4382</v>
       </c>
       <c r="C4236" s="1"/>
       <c r="D4236" s="1"/>
@@ -47585,7 +47623,7 @@
         <v>1994</v>
       </c>
       <c r="B4237" s="1" t="s">
-        <v>4384</v>
+        <v>4383</v>
       </c>
       <c r="C4237" s="1"/>
       <c r="D4237" s="1"/>
@@ -47597,7 +47635,7 @@
         <v>2001</v>
       </c>
       <c r="B4238" s="1" t="s">
-        <v>4385</v>
+        <v>4384</v>
       </c>
       <c r="C4238" s="1"/>
       <c r="D4238" s="1"/>
@@ -47609,7 +47647,7 @@
         <v>1999</v>
       </c>
       <c r="B4239" s="1" t="s">
-        <v>4386</v>
+        <v>4385</v>
       </c>
       <c r="C4239" s="1"/>
       <c r="D4239" s="1"/>
@@ -47621,7 +47659,7 @@
         <v>1997</v>
       </c>
       <c r="B4240" s="1" t="s">
-        <v>4387</v>
+        <v>4386</v>
       </c>
       <c r="C4240" s="1"/>
       <c r="D4240" s="1"/>
@@ -47634,7 +47672,7 @@
         <v>1995</v>
       </c>
       <c r="B4241" s="1" t="s">
-        <v>4388</v>
+        <v>4387</v>
       </c>
       <c r="C4241" s="1"/>
       <c r="D4241" s="1"/>
@@ -47647,7 +47685,7 @@
         <v>2002</v>
       </c>
       <c r="B4242" s="1" t="s">
-        <v>4389</v>
+        <v>4388</v>
       </c>
       <c r="C4242" s="1"/>
       <c r="D4242" s="1"/>
@@ -47657,42 +47695,42 @@
     </row>
     <row r="4243" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4243" s="1" t="s">
-        <v>4400</v>
+        <v>4399</v>
       </c>
       <c r="B4243" s="1" t="s">
-        <v>4400</v>
+        <v>4399</v>
       </c>
     </row>
     <row r="4244" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4244" s="1" t="s">
-        <v>4401</v>
+        <v>4400</v>
       </c>
       <c r="B4244" s="1" t="s">
-        <v>4401</v>
+        <v>4400</v>
       </c>
     </row>
     <row r="4245" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4245" s="1" t="s">
-        <v>4402</v>
+        <v>4401</v>
       </c>
       <c r="B4245" s="1" t="s">
-        <v>4402</v>
+        <v>4401</v>
       </c>
     </row>
     <row r="4246" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4246" s="1" t="s">
-        <v>4403</v>
+        <v>4402</v>
       </c>
       <c r="B4246" s="1" t="s">
-        <v>4403</v>
+        <v>4402</v>
       </c>
     </row>
     <row r="4247" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4247" s="1" t="s">
-        <v>4404</v>
+        <v>4403</v>
       </c>
       <c r="B4247" s="1" t="s">
-        <v>4404</v>
+        <v>4403</v>
       </c>
     </row>
   </sheetData>
@@ -47702,8 +47740,8 @@
     <cfRule type="duplicateValues" dxfId="7" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4243:B4247">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -56234,15 +56272,15 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A586:A1064">
-    <cfRule type="duplicateValues" dxfId="6" priority="4"/>
-    <cfRule type="duplicateValues" dxfId="5" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:B1064">
-    <cfRule type="duplicateValues" dxfId="4" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B586:B1064">
-    <cfRule type="duplicateValues" dxfId="3" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/LuanNoBoc.xlsx
+++ b/LuanNoBoc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tuvi\TuVi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBA62685-2D77-43D0-ABBB-ECC75CDA706F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B194A01-7EEF-4AB3-B9BA-FB231CD4D931}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10627" uniqueCount="4411">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10634" uniqueCount="4418">
   <si>
     <t>Vũ Khúc và Tham Lang đồng cung tại Mùi</t>
   </si>
@@ -13266,6 +13266,27 @@
   </si>
   <si>
     <t>Lúc cung nô bộc làm cung vị biểu hiện của cung tử nữ, có thể luận là con cái hòa hợp với mệnh tạo. Ngoài ra, còn có thể đoán về biểu hiện hợp tác. Hóa Lộc ở cung nô bộc chỉ chủ về hiện tượng bên ngoài của việc hợp tác làm ăn, muốn xem tình hình thu lợi thế nào, cần phải xem phối hợp cung nô bộc và tam phương của nó mới có thể định được tình hình cát hung của việc hợp tác.</t>
+  </si>
+  <si>
+    <t>Hóa Quyền là lực hành động, cung nô bộc là "tha cung" (không phải thân nhân), nên khó có liên quan với mệnh tạo. Trong trường hợp Hóa Quyền ở cung nô bộc, thì mệnh tạo sẽ mất đi động lực thực tế để đạt thành mộng tưởng, mà chuyển sang cầu ở người khác. Lúc xem cung nô bộc là lục thân, trường hợp có Hóa Quyền, là chủ về mệnh tạo có nhiều bạn bè quyền thế. Nếu lấy nguyên tắc "vật dĩ loại tụ" để suy luận, thì địa vị xã hội của mệnh tạo cũng không đến nỗi tệ, vì có thể tiếp xúc nhiều người trong giới thượng lưu của xã hội.</t>
+  </si>
+  <si>
+    <t>Trường hợp Hóa Quyền ở cung vị đại biểu cho người khác, là chủ về người của cung vị này có thể mạnh hơn mệnh tạo; có Hóa Quyền, trong số bạn bè có người năng lực chuyên môn rất cao. Ngoài ra, vì Hóa Quyền là "cách đạt thành mục đích", cho nên mệnh tạo sẽ kì vọng ở người khác, giao quyền cho người khác thực hiện mộng tưởng của bản thân, thậm chí lấy đó làm điểm tựa cho cuộc sống.</t>
+  </si>
+  <si>
+    <t>Tiếp theo trên, lúc này vị trí của Hóa Lộc và Hóa Kị [năm sinh] sẽ ảnh hưởng đến kết quả và hoàn cảnh mà mệnh tạo phụ thuộc, dựa vào. Trường hợp Hóa Lộc và Hóa Kị [năm sinh] ở vị trí không thích đáng, là chủ về đánh hơi hay nhìn sắc mặt người ta mà sống, ngầm than thở. Trong trường hợp Hóa Lộc và Hóa Kị [năm sinh] ở vị trí thích đáng, phần nhiều là người dựa dẫm vào quyền quý, thậm chí nhờ đó mà thành đạt. Tiếp theo điều (4), trường hợp Hóa Lộc và Hóa Kị [năm sinh] ở vị trí không thích đáng, trừ phi cung nô bộc phi hóa một cách hòa hoãn, hồi ứng có lợi cho mệnh tạo, thì có thể được cấp trên hay người có quyền thế nâng đỡ, và có thể gặp được quý nhân.</t>
+  </si>
+  <si>
+    <t>Hóa Quyền khiến cho cung có thể mạnh, có thể chuyển dời nguy cơ hay trút trách nhiệm cho ai đó, còn có hàm ý thay đổi nhanh chóng. Trường hợp Hóa Quyền ở cung nô bộc, về phương diện bạn bè, mệnh tạo làm quen khá nhanh, và tỏ ra gần gũi, nhiệt tình; vì mệnh tạo kì vọng vào sự trợ giúp của bạn bè, cho nên thường hay thay đổi đối tượng giao du. Nhưng dưới lực tác động của Hóa Quyền, việc giao du giữa bạn bè không hòa hợp giống như Hóa Lộc, thường chỉ là có qua có lại; hơn nữa, bạn bè ở thế mạnh, nên tình cảm giữa mệnh tạo với bạn bè rất dễ mất hòa khí, thậm chí sẽ ảnh hưởng đến cung huynh đệ. Hóa Quyền thì chủ về vật chất và tiền bạc, khá thực tế; do đó giữa mệnh tạo và bạn bè cũng không loại trừ có sự trợ giúp về mặt thực chất, tuy nhận sự giúp đỡ của bạn bè, về tâm lí mệnh tạo vẫn bị áp lực ở mức độ nào đó.</t>
+  </si>
+  <si>
+    <t>Các tình huống xảy ra ở tuyến huynh nô, thường thường có liên quan đến sức khỏe, trường hợp có Hóa Quyền ở cung nô bộc, có thể ngăn chặn sự xung kích, trói buộc của Hóa Kị đối với tuyến "huynh nô"; do đó về thể chất phần nhiều là có sức đề kháng tốt, dù gặp tai hại bất ngờ, thường vẫn có thể chống đỡ và vượt qua.</t>
+  </si>
+  <si>
+    <t>Cung nô bộc là cung vị khí số của cung phụ mẫu, trường hợp có Hóa Quyền, phần nhiều cha mẹ là người có địa vị xã hội, hoặc là người có học thức hay có bồi dưỡng kĩ năng. Nhưng Hóa Quyền ở cung vị khí số của cung phụ mẫu, giả sử tổ hợp sao ở cung phụ mẫu lại không tốt, thì quan hệ giữa cha mẹ không được tốt, thường hay xảy ra tranh cãi.</t>
+  </si>
+  <si>
+    <t>Cung nô bộc là cung vị tài bạch của cung tử nữ, trường hợp có Hóa Quyền, vì mệnh tạo mong muốn nên cơ hội hợp tác sẽ nhiều hơn; phần nhiều là doanh nghiệp làm ăn theo phương thức chuyên nghiệp hay độc quyền, nhưng quyền điều khiển làm ăn lại nằm trong tay người khác, còn việc có kiếm tiền được hay không thì phải xem mối quan hệ của nó với cung mệnh. Xem xét ở góc độ con cái, con cái của mệnh tạo thường là người có sở học tinh chuyên, còn có biểu hiện kiệt xuất. Nhưng vì Hóa Quyền ở cung vị tài bạch của cung tử nữ, cho nên cũng sẽ là người làm việc siêng năng, chịu khó.</t>
   </si>
 </sst>
 </file>
@@ -13674,10 +13695,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE792A93-0F7F-4F11-B4F9-CDC032EF3078}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A2:H4247"/>
+  <dimension ref="A2:I4247"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1572" workbookViewId="0">
-      <selection activeCell="E1575" sqref="E1575"/>
+    <sheetView tabSelected="1" topLeftCell="A1580" workbookViewId="0">
+      <selection activeCell="C1580" sqref="C1580"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13685,6 +13706,7 @@
     <col min="1" max="2" width="59.42578125" style="1" customWidth="1"/>
     <col min="3" max="3" width="44.85546875" customWidth="1"/>
     <col min="4" max="8" width="34.85546875" customWidth="1"/>
+    <col min="9" max="9" width="40.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -26223,7 +26245,7 @@
         <v>4324</v>
       </c>
     </row>
-    <row r="1569" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="1569" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A1569" s="1" t="s">
         <v>1565</v>
       </c>
@@ -26231,7 +26253,7 @@
         <v>4325</v>
       </c>
     </row>
-    <row r="1570" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+    <row r="1570" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A1570" s="1" t="s">
         <v>1566</v>
       </c>
@@ -26239,7 +26261,7 @@
         <v>4326</v>
       </c>
     </row>
-    <row r="1571" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="1571" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A1571" s="1" t="s">
         <v>1567</v>
       </c>
@@ -26247,7 +26269,7 @@
         <v>4327</v>
       </c>
     </row>
-    <row r="1572" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="1572" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A1572" s="1" t="s">
         <v>1568</v>
       </c>
@@ -26255,7 +26277,7 @@
         <v>4328</v>
       </c>
     </row>
-    <row r="1573" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1573" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1573" s="1" t="s">
         <v>1569</v>
       </c>
@@ -26263,7 +26285,7 @@
         <v>4329</v>
       </c>
     </row>
-    <row r="1574" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1574" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1574" s="1" t="s">
         <v>1570</v>
       </c>
@@ -26271,7 +26293,7 @@
         <v>4329</v>
       </c>
     </row>
-    <row r="1575" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="1575" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A1575" s="1" t="s">
         <v>1571</v>
       </c>
@@ -26279,7 +26301,7 @@
         <v>4331</v>
       </c>
     </row>
-    <row r="1576" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="1576" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A1576" s="1" t="s">
         <v>1572</v>
       </c>
@@ -26287,7 +26309,7 @@
         <v>4330</v>
       </c>
     </row>
-    <row r="1577" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="1577" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A1577" s="1" t="s">
         <v>1573</v>
       </c>
@@ -26295,7 +26317,7 @@
         <v>4332</v>
       </c>
     </row>
-    <row r="1578" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="1578" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A1578" s="1" t="s">
         <v>1574</v>
       </c>
@@ -26303,7 +26325,7 @@
         <v>4332</v>
       </c>
     </row>
-    <row r="1579" spans="1:8" ht="285" x14ac:dyDescent="0.25">
+    <row r="1579" spans="1:9" ht="285" x14ac:dyDescent="0.25">
       <c r="A1579" s="1" t="s">
         <v>1575</v>
       </c>
@@ -26329,15 +26351,36 @@
         <v>4410</v>
       </c>
     </row>
-    <row r="1580" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="1580" spans="1:9" ht="360" x14ac:dyDescent="0.25">
       <c r="A1580" s="1" t="s">
         <v>1576</v>
       </c>
       <c r="B1580" s="1" t="s">
         <v>4333</v>
       </c>
-    </row>
-    <row r="1581" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="C1580" s="1" t="s">
+        <v>4411</v>
+      </c>
+      <c r="D1580" s="1" t="s">
+        <v>4412</v>
+      </c>
+      <c r="E1580" s="1" t="s">
+        <v>4413</v>
+      </c>
+      <c r="F1580" s="1" t="s">
+        <v>4414</v>
+      </c>
+      <c r="G1580" s="1" t="s">
+        <v>4415</v>
+      </c>
+      <c r="H1580" s="1" t="s">
+        <v>4416</v>
+      </c>
+      <c r="I1580" s="1" t="s">
+        <v>4417</v>
+      </c>
+    </row>
+    <row r="1581" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A1581" s="1" t="s">
         <v>1577</v>
       </c>
@@ -26345,7 +26388,7 @@
         <v>4334</v>
       </c>
     </row>
-    <row r="1582" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="1582" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A1582" s="1" t="s">
         <v>1578</v>
       </c>
@@ -26353,7 +26396,7 @@
         <v>4336</v>
       </c>
     </row>
-    <row r="1583" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="1583" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A1583" s="1" t="s">
         <v>1579</v>
       </c>
@@ -26361,7 +26404,7 @@
         <v>4335</v>
       </c>
     </row>
-    <row r="1584" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="1584" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A1584" s="1" t="s">
         <v>1580</v>
       </c>

--- a/LuanNoBoc.xlsx
+++ b/LuanNoBoc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tuvi\TuVi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B194A01-7EEF-4AB3-B9BA-FB231CD4D931}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D2EEC4A-AA01-4445-866E-78EF0798F951}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10634" uniqueCount="4418">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10637" uniqueCount="4421">
   <si>
     <t>Vũ Khúc và Tham Lang đồng cung tại Mùi</t>
   </si>
@@ -13037,9 +13037,6 @@
     <t>Bạn bè có quyền hành, nhờ bạn bè làm nên. Bạn bè nhiều người có quyền chức, địa vị xã hội, càng hội nhiều cát tinh thì quyền hành càng cao. Bạn hay bị bạn bè, đồng nghiệp, cấp dưới vượt quyền, o ép, chỉ đạo, thích chi phối bản thân mình.</t>
   </si>
   <si>
-    <t>Nhiều người giúp đỡ đắc lực, làm nên. Nhiều người bạn bè tài giỏi, học hành thi cử đỗ đạt.</t>
-  </si>
-  <si>
     <t>Bạn bè giỏi giang, nhưng hơi ít bạn. Người thường hay được bạn bè, đồng nghiệp, cấp dưới mời đi ăn, đi chơi, có duyên hợp tác, giúp đỡ. Dễ hay được biếu xén, tặng quà càng về già càng quen nhiều bạn tốt và giỏi giang</t>
   </si>
   <si>
@@ -13287,6 +13284,18 @@
   </si>
   <si>
     <t>Cung nô bộc là cung vị tài bạch của cung tử nữ, trường hợp có Hóa Quyền, vì mệnh tạo mong muốn nên cơ hội hợp tác sẽ nhiều hơn; phần nhiều là doanh nghiệp làm ăn theo phương thức chuyên nghiệp hay độc quyền, nhưng quyền điều khiển làm ăn lại nằm trong tay người khác, còn việc có kiếm tiền được hay không thì phải xem mối quan hệ của nó với cung mệnh. Xem xét ở góc độ con cái, con cái của mệnh tạo thường là người có sở học tinh chuyên, còn có biểu hiện kiệt xuất. Nhưng vì Hóa Quyền ở cung vị tài bạch của cung tử nữ, cho nên cũng sẽ là người làm việc siêng năng, chịu khó.</t>
+  </si>
+  <si>
+    <t>Nhiều người giúp đỡ đắc lực, làm nên. Nhiều người bạn bè tài giỏi, học hành thi cử đỗ đạt. Cung nô bộc là cung vị đại biểu cho bạn bè, còn Hóa Khoa là có ý tượng "danh tiếng", "danh vọng". Trường hợp Hóa Khoa ở cung vị này, ấn tượng đầu tiên là bạn bè qua lại của mệnh tạo đại đa số là danh nhân hoặc là người có danh vọng, có thân phận địa vị. Cung nô bộc cũng là cung vị đại biểu cho "đại ngã"; theo nguyên lí "vật dĩ loại tụ" (vật tụ tập theo loài), những người mệnh tạo giao du phần nhiều là có danh vọng, như vậy bản thân mệnh tạo cũng không đến nỗi tệ. Nhưng vì Hóa Khoa nhập cung nô bộc là có ý tượng so sánh, mệnh tạo sẽ cho ràng thân hữu qua lại với mình đều có tên tuổi, danh vọng và uy thế. Lực tác động của Hóa Khoa là không vượt ra ngoài quy củ, còn có hàm nghĩa tiệm tiến, bình hòa; lúc luận giải về bạn bè, thông thường họ sẽ không có ước muốn hay ý đồ đòi hỏi vượt quá giới hạn; hơn nữa, trong quá trình giao du cũng sẽ không có ý tranh giành, hay tranh cường hiếu thắng.</t>
+  </si>
+  <si>
+    <t>Nếu luận về mục đích giao du giữa bạn bè, hay luận về phương thức giao du, phần nhiều là trò chuyện trao đổi với nhau tâm đắc về phương diện học vấn, tri thức, hoặc tham dự hiệp hội đoàn thể liên quan đến việc học hành. Hóa Khoa đến bảo vệ tuyến "huynh nô" cũng tương tự như tác dụng của Hóa Khoa ở cung nô bộc, là chủ về sự, trao đổi tri thức và kiến giải về cách giữ gìn sức khỏe, thậm chỉ là giao lưu thông tin y học, cũng nằm trong phạm vi này. Lực tác động của Hóa Khoa phần nhiều là sở đắc về phương diện tâm hồn, tinh thần; do đó cung nô bộc có Hóa Khoa, là chủ về sự trợ giúp của bạn bè, phần nhiều là đề nghị hay chỉ dẫn có thiện ý, mà rất ít khi trợ giúp về tài chính. Nói một cách tương đối, giữa bạn bè cùng rất ít có sự qua lại về lợi ích.</t>
+  </si>
+  <si>
+    <t>Do Hóa Khoa [năm sinh] duy nhất của mệnh tạo thuộc về "tha cung" (tức cung nô bộc), là mệnh tạo thiếu thái độ đối ứng thận trọng, cũng thiếu sự bảo vệ trong thời gian đầu, cần phải mất nhiêu thời gian để đối mặt với cành khó khăn và nguy cơ. Nhưng Hóa Khoa ở cung nô bộc vẫn có thể bảo vệ tuyến "huynh nô", tức có thể chống lại một cách hữu hiệu các nguy cơ xảy ra đột ngột, tránh được các tai nạn tiềm ấn kiếu "cộng nghiệp" (như tai nạn máy bay, tàu thuyền lớn, động đất ..).</t>
+  </si>
+  <si>
+    <t>Cung nô bộc là cung vị khí số của cung phụ mẫu, có Hóa Khoa, chủ về cha mẹ là người phúc hậu, tâm tính bình hòa, hoặc là người hiểu biết, có học thức; còn chủ về cuộc sống của song thân ổn định. Cung nô bộc là cung vị biểu hiện của cung tử nữ, trường hợp Hóa Khoa nhập cung nô bộc: Một là, biểu hiện của con cái có ngăn nắp, lớp lang, quyền làm việc được bảo đảm; hai là, mệnh tạo hợp tác đầu tư làm ăn, phần nhiều là sự nghiệp vững chắc và hợp pháp, tuy không nhất định sẽ có lời nhiều, nhưng ít nhất trong quá trình hợp tác cũng được coi là hợp tác vui vẻ.</t>
   </si>
 </sst>
 </file>
@@ -13697,8 +13706,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A2:I4247"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1580" workbookViewId="0">
-      <selection activeCell="C1580" sqref="C1580"/>
+    <sheetView tabSelected="1" topLeftCell="A1581" workbookViewId="0">
+      <selection activeCell="D1583" sqref="D1583"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13714,7 +13723,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>4385</v>
+        <v>4384</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -25994,7 +26003,7 @@
         <v>27</v>
       </c>
       <c r="B1537" s="1" t="s">
-        <v>4386</v>
+        <v>4385</v>
       </c>
     </row>
     <row r="1538" spans="1:2" x14ac:dyDescent="0.25">
@@ -26026,7 +26035,7 @@
         <v>31</v>
       </c>
       <c r="B1541" s="1" t="s">
-        <v>4387</v>
+        <v>4386</v>
       </c>
     </row>
     <row r="1542" spans="1:2" x14ac:dyDescent="0.25">
@@ -26042,7 +26051,7 @@
         <v>33</v>
       </c>
       <c r="B1543" s="1" t="s">
-        <v>4392</v>
+        <v>4391</v>
       </c>
     </row>
     <row r="1544" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -26122,7 +26131,7 @@
         <v>43</v>
       </c>
       <c r="B1553" s="1" t="s">
-        <v>4384</v>
+        <v>4383</v>
       </c>
     </row>
     <row r="1554" spans="1:2" x14ac:dyDescent="0.25">
@@ -26330,25 +26339,25 @@
         <v>1575</v>
       </c>
       <c r="B1579" s="1" t="s">
+        <v>4403</v>
+      </c>
+      <c r="C1579" s="1" t="s">
         <v>4404</v>
       </c>
-      <c r="C1579" s="1" t="s">
+      <c r="D1579" s="1" t="s">
         <v>4405</v>
       </c>
-      <c r="D1579" s="1" t="s">
+      <c r="E1579" s="1" t="s">
         <v>4406</v>
       </c>
-      <c r="E1579" s="1" t="s">
+      <c r="F1579" s="1" t="s">
         <v>4407</v>
       </c>
-      <c r="F1579" s="1" t="s">
+      <c r="G1579" s="1" t="s">
         <v>4408</v>
       </c>
-      <c r="G1579" s="1" t="s">
+      <c r="H1579" s="1" t="s">
         <v>4409</v>
-      </c>
-      <c r="H1579" s="1" t="s">
-        <v>4410</v>
       </c>
     </row>
     <row r="1580" spans="1:9" ht="360" x14ac:dyDescent="0.25">
@@ -26359,33 +26368,42 @@
         <v>4333</v>
       </c>
       <c r="C1580" s="1" t="s">
+        <v>4410</v>
+      </c>
+      <c r="D1580" s="1" t="s">
         <v>4411</v>
       </c>
-      <c r="D1580" s="1" t="s">
+      <c r="E1580" s="1" t="s">
         <v>4412</v>
       </c>
-      <c r="E1580" s="1" t="s">
+      <c r="F1580" s="1" t="s">
         <v>4413</v>
       </c>
-      <c r="F1580" s="1" t="s">
+      <c r="G1580" s="1" t="s">
         <v>4414</v>
       </c>
-      <c r="G1580" s="1" t="s">
+      <c r="H1580" s="1" t="s">
         <v>4415</v>
       </c>
-      <c r="H1580" s="1" t="s">
+      <c r="I1580" s="1" t="s">
         <v>4416</v>
       </c>
-      <c r="I1580" s="1" t="s">
-        <v>4417</v>
-      </c>
-    </row>
-    <row r="1581" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="1581" spans="1:9" ht="240" x14ac:dyDescent="0.25">
       <c r="A1581" s="1" t="s">
         <v>1577</v>
       </c>
       <c r="B1581" s="1" t="s">
-        <v>4334</v>
+        <v>4417</v>
+      </c>
+      <c r="C1581" s="1" t="s">
+        <v>4418</v>
+      </c>
+      <c r="D1581" s="1" t="s">
+        <v>4419</v>
+      </c>
+      <c r="E1581" s="1" t="s">
+        <v>4420</v>
       </c>
     </row>
     <row r="1582" spans="1:9" ht="75" x14ac:dyDescent="0.25">
@@ -26393,7 +26411,7 @@
         <v>1578</v>
       </c>
       <c r="B1582" s="1" t="s">
-        <v>4336</v>
+        <v>4335</v>
       </c>
     </row>
     <row r="1583" spans="1:9" ht="60" x14ac:dyDescent="0.25">
@@ -26401,7 +26419,7 @@
         <v>1579</v>
       </c>
       <c r="B1583" s="1" t="s">
-        <v>4335</v>
+        <v>4334</v>
       </c>
     </row>
     <row r="1584" spans="1:9" ht="45" x14ac:dyDescent="0.25">
@@ -26409,7 +26427,7 @@
         <v>1580</v>
       </c>
       <c r="B1584" s="1" t="s">
-        <v>4338</v>
+        <v>4337</v>
       </c>
     </row>
     <row r="1585" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -26417,7 +26435,7 @@
         <v>1581</v>
       </c>
       <c r="B1585" s="1" t="s">
-        <v>4337</v>
+        <v>4336</v>
       </c>
     </row>
     <row r="1586" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -26425,7 +26443,7 @@
         <v>1582</v>
       </c>
       <c r="B1586" s="1" t="s">
-        <v>4339</v>
+        <v>4338</v>
       </c>
     </row>
     <row r="1587" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -26433,7 +26451,7 @@
         <v>1583</v>
       </c>
       <c r="B1587" s="1" t="s">
-        <v>4339</v>
+        <v>4338</v>
       </c>
     </row>
     <row r="1588" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -26441,7 +26459,7 @@
         <v>1584</v>
       </c>
       <c r="B1588" s="1" t="s">
-        <v>4340</v>
+        <v>4339</v>
       </c>
     </row>
     <row r="1589" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -26449,7 +26467,7 @@
         <v>1585</v>
       </c>
       <c r="B1589" s="1" t="s">
-        <v>4340</v>
+        <v>4339</v>
       </c>
     </row>
     <row r="1590" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -26457,7 +26475,7 @@
         <v>1586</v>
       </c>
       <c r="B1590" s="1" t="s">
-        <v>4341</v>
+        <v>4340</v>
       </c>
     </row>
     <row r="1591" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -26465,7 +26483,7 @@
         <v>1588</v>
       </c>
       <c r="B1591" s="1" t="s">
-        <v>4342</v>
+        <v>4341</v>
       </c>
     </row>
     <row r="1592" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -26473,7 +26491,7 @@
         <v>1587</v>
       </c>
       <c r="B1592" s="1" t="s">
-        <v>4342</v>
+        <v>4341</v>
       </c>
     </row>
     <row r="1593" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -26481,7 +26499,7 @@
         <v>1589</v>
       </c>
       <c r="B1593" s="1" t="s">
-        <v>4343</v>
+        <v>4342</v>
       </c>
     </row>
     <row r="1594" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -26489,7 +26507,7 @@
         <v>1590</v>
       </c>
       <c r="B1594" s="1" t="s">
-        <v>4344</v>
+        <v>4343</v>
       </c>
     </row>
     <row r="1595" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -26497,7 +26515,7 @@
         <v>1591</v>
       </c>
       <c r="B1595" s="1" t="s">
-        <v>4344</v>
+        <v>4343</v>
       </c>
     </row>
     <row r="1596" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -26505,7 +26523,7 @@
         <v>1592</v>
       </c>
       <c r="B1596" s="1" t="s">
-        <v>4345</v>
+        <v>4344</v>
       </c>
     </row>
     <row r="1597" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -26513,7 +26531,7 @@
         <v>1593</v>
       </c>
       <c r="B1597" s="1" t="s">
-        <v>4346</v>
+        <v>4345</v>
       </c>
     </row>
     <row r="1598" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -26521,7 +26539,7 @@
         <v>1594</v>
       </c>
       <c r="B1598" s="1" t="s">
-        <v>4347</v>
+        <v>4346</v>
       </c>
     </row>
     <row r="1599" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -26529,7 +26547,7 @@
         <v>1595</v>
       </c>
       <c r="B1599" s="1" t="s">
-        <v>4348</v>
+        <v>4347</v>
       </c>
     </row>
     <row r="1600" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -26537,7 +26555,7 @@
         <v>1806</v>
       </c>
       <c r="B1600" s="1" t="s">
-        <v>4349</v>
+        <v>4348</v>
       </c>
     </row>
     <row r="1601" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -26545,7 +26563,7 @@
         <v>1598</v>
       </c>
       <c r="B1601" s="1" t="s">
-        <v>4350</v>
+        <v>4349</v>
       </c>
     </row>
     <row r="1602" spans="1:2" x14ac:dyDescent="0.25">
@@ -26561,7 +26579,7 @@
         <v>1807</v>
       </c>
       <c r="B1603" s="1" t="s">
-        <v>4351</v>
+        <v>4350</v>
       </c>
     </row>
     <row r="1604" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -26569,7 +26587,7 @@
         <v>1808</v>
       </c>
       <c r="B1604" s="1" t="s">
-        <v>4352</v>
+        <v>4351</v>
       </c>
     </row>
     <row r="1605" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -26577,7 +26595,7 @@
         <v>1809</v>
       </c>
       <c r="B1605" s="1" t="s">
-        <v>4353</v>
+        <v>4352</v>
       </c>
     </row>
     <row r="1606" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -26585,7 +26603,7 @@
         <v>1810</v>
       </c>
       <c r="B1606" s="1" t="s">
-        <v>4354</v>
+        <v>4353</v>
       </c>
     </row>
     <row r="1607" spans="1:2" x14ac:dyDescent="0.25">
@@ -26593,7 +26611,7 @@
         <v>1811</v>
       </c>
       <c r="B1607" s="1" t="s">
-        <v>4355</v>
+        <v>4354</v>
       </c>
     </row>
     <row r="1608" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -26609,7 +26627,7 @@
         <v>1813</v>
       </c>
       <c r="B1609" s="1" t="s">
-        <v>4356</v>
+        <v>4355</v>
       </c>
     </row>
     <row r="1610" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -26617,7 +26635,7 @@
         <v>1596</v>
       </c>
       <c r="B1610" s="1" t="s">
-        <v>4357</v>
+        <v>4356</v>
       </c>
     </row>
     <row r="1611" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -26625,7 +26643,7 @@
         <v>1814</v>
       </c>
       <c r="B1611" s="1" t="s">
-        <v>4358</v>
+        <v>4357</v>
       </c>
     </row>
     <row r="1612" spans="1:2" x14ac:dyDescent="0.25">
@@ -27961,7 +27979,7 @@
         <v>1765</v>
       </c>
       <c r="B1778" s="1" t="s">
-        <v>4389</v>
+        <v>4388</v>
       </c>
     </row>
     <row r="1779" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -27969,7 +27987,7 @@
         <v>1766</v>
       </c>
       <c r="B1779" s="1" t="s">
-        <v>4389</v>
+        <v>4388</v>
       </c>
     </row>
     <row r="1780" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -27977,7 +27995,7 @@
         <v>1767</v>
       </c>
       <c r="B1780" s="1" t="s">
-        <v>4381</v>
+        <v>4380</v>
       </c>
     </row>
     <row r="1781" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -27985,7 +28003,7 @@
         <v>1768</v>
       </c>
       <c r="B1781" s="1" t="s">
-        <v>4381</v>
+        <v>4380</v>
       </c>
     </row>
     <row r="1782" spans="1:2" x14ac:dyDescent="0.25">
@@ -27993,7 +28011,7 @@
         <v>1769</v>
       </c>
       <c r="B1782" s="1" t="s">
-        <v>4390</v>
+        <v>4389</v>
       </c>
     </row>
     <row r="1783" spans="1:2" x14ac:dyDescent="0.25">
@@ -28001,7 +28019,7 @@
         <v>1770</v>
       </c>
       <c r="B1783" s="1" t="s">
-        <v>4390</v>
+        <v>4389</v>
       </c>
     </row>
     <row r="1784" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -28009,7 +28027,7 @@
         <v>1771</v>
       </c>
       <c r="B1784" s="1" t="s">
-        <v>4392</v>
+        <v>4391</v>
       </c>
     </row>
     <row r="1785" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -28017,7 +28035,7 @@
         <v>1772</v>
       </c>
       <c r="B1785" s="1" t="s">
-        <v>4391</v>
+        <v>4390</v>
       </c>
     </row>
     <row r="1786" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -28025,7 +28043,7 @@
         <v>1773</v>
       </c>
       <c r="B1786" s="1" t="s">
-        <v>4391</v>
+        <v>4390</v>
       </c>
     </row>
     <row r="1787" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -28033,7 +28051,7 @@
         <v>1774</v>
       </c>
       <c r="B1787" s="1" t="s">
-        <v>4380</v>
+        <v>4379</v>
       </c>
     </row>
     <row r="1788" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -28041,7 +28059,7 @@
         <v>1775</v>
       </c>
       <c r="B1788" s="1" t="s">
-        <v>4380</v>
+        <v>4379</v>
       </c>
     </row>
     <row r="1789" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -28049,7 +28067,7 @@
         <v>1776</v>
       </c>
       <c r="B1789" s="1" t="s">
-        <v>4383</v>
+        <v>4382</v>
       </c>
     </row>
     <row r="1790" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -28057,7 +28075,7 @@
         <v>1777</v>
       </c>
       <c r="B1790" s="1" t="s">
-        <v>4383</v>
+        <v>4382</v>
       </c>
     </row>
     <row r="1791" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -28065,7 +28083,7 @@
         <v>1778</v>
       </c>
       <c r="B1791" s="1" t="s">
-        <v>4387</v>
+        <v>4386</v>
       </c>
     </row>
     <row r="1792" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -28073,7 +28091,7 @@
         <v>1779</v>
       </c>
       <c r="B1792" s="1" t="s">
-        <v>4382</v>
+        <v>4381</v>
       </c>
     </row>
     <row r="1793" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -28081,7 +28099,7 @@
         <v>1780</v>
       </c>
       <c r="B1793" s="1" t="s">
-        <v>4382</v>
+        <v>4381</v>
       </c>
     </row>
     <row r="1794" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -28089,7 +28107,7 @@
         <v>1781</v>
       </c>
       <c r="B1794" s="1" t="s">
-        <v>4386</v>
+        <v>4385</v>
       </c>
     </row>
     <row r="1795" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -28097,7 +28115,7 @@
         <v>1782</v>
       </c>
       <c r="B1795" s="1" t="s">
-        <v>4375</v>
+        <v>4374</v>
       </c>
     </row>
     <row r="1796" spans="1:2" x14ac:dyDescent="0.25">
@@ -28105,7 +28123,7 @@
         <v>1783</v>
       </c>
       <c r="B1796" s="1" t="s">
-        <v>4376</v>
+        <v>4375</v>
       </c>
     </row>
     <row r="1797" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -28113,7 +28131,7 @@
         <v>1784</v>
       </c>
       <c r="B1797" s="1" t="s">
-        <v>4385</v>
+        <v>4384</v>
       </c>
     </row>
     <row r="1798" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -28121,7 +28139,7 @@
         <v>1785</v>
       </c>
       <c r="B1798" s="1" t="s">
-        <v>4373</v>
+        <v>4372</v>
       </c>
     </row>
     <row r="1799" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -28129,7 +28147,7 @@
         <v>1786</v>
       </c>
       <c r="B1799" s="1" t="s">
-        <v>4373</v>
+        <v>4372</v>
       </c>
     </row>
     <row r="1800" spans="1:2" x14ac:dyDescent="0.25">
@@ -28137,7 +28155,7 @@
         <v>1787</v>
       </c>
       <c r="B1800" s="1" t="s">
-        <v>4393</v>
+        <v>4392</v>
       </c>
     </row>
     <row r="1801" spans="1:2" x14ac:dyDescent="0.25">
@@ -28145,7 +28163,7 @@
         <v>1788</v>
       </c>
       <c r="B1801" s="1" t="s">
-        <v>4393</v>
+        <v>4392</v>
       </c>
     </row>
     <row r="1802" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -28153,7 +28171,7 @@
         <v>1789</v>
       </c>
       <c r="B1802" s="1" t="s">
-        <v>4394</v>
+        <v>4393</v>
       </c>
     </row>
     <row r="1803" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -28161,7 +28179,7 @@
         <v>1790</v>
       </c>
       <c r="B1803" s="1" t="s">
-        <v>4394</v>
+        <v>4393</v>
       </c>
     </row>
     <row r="1804" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -28169,7 +28187,7 @@
         <v>1791</v>
       </c>
       <c r="B1804" s="1" t="s">
-        <v>4384</v>
+        <v>4383</v>
       </c>
     </row>
     <row r="1805" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -28177,7 +28195,7 @@
         <v>1792</v>
       </c>
       <c r="B1805" s="1" t="s">
-        <v>4388</v>
+        <v>4387</v>
       </c>
     </row>
     <row r="1806" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -28185,7 +28203,7 @@
         <v>1793</v>
       </c>
       <c r="B1806" s="1" t="s">
-        <v>4388</v>
+        <v>4387</v>
       </c>
     </row>
     <row r="1807" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -28193,7 +28211,7 @@
         <v>1794</v>
       </c>
       <c r="B1807" s="1" t="s">
-        <v>4374</v>
+        <v>4373</v>
       </c>
     </row>
     <row r="1808" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -28201,7 +28219,7 @@
         <v>1795</v>
       </c>
       <c r="B1808" s="1" t="s">
-        <v>4374</v>
+        <v>4373</v>
       </c>
     </row>
     <row r="1809" spans="1:2" x14ac:dyDescent="0.25">
@@ -28209,7 +28227,7 @@
         <v>1796</v>
       </c>
       <c r="B1809" s="1" t="s">
-        <v>4395</v>
+        <v>4394</v>
       </c>
     </row>
     <row r="1810" spans="1:2" x14ac:dyDescent="0.25">
@@ -28217,7 +28235,7 @@
         <v>1797</v>
       </c>
       <c r="B1810" s="1" t="s">
-        <v>4395</v>
+        <v>4394</v>
       </c>
     </row>
     <row r="1811" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -28225,7 +28243,7 @@
         <v>1798</v>
       </c>
       <c r="B1811" s="1" t="s">
-        <v>4378</v>
+        <v>4377</v>
       </c>
     </row>
     <row r="1812" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -28233,7 +28251,7 @@
         <v>1799</v>
       </c>
       <c r="B1812" s="1" t="s">
-        <v>4378</v>
+        <v>4377</v>
       </c>
     </row>
     <row r="1813" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -28241,7 +28259,7 @@
         <v>1800</v>
       </c>
       <c r="B1813" s="1" t="s">
-        <v>4396</v>
+        <v>4395</v>
       </c>
     </row>
     <row r="1814" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -28249,7 +28267,7 @@
         <v>1801</v>
       </c>
       <c r="B1814" s="1" t="s">
-        <v>4396</v>
+        <v>4395</v>
       </c>
     </row>
     <row r="1815" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -28257,7 +28275,7 @@
         <v>1802</v>
       </c>
       <c r="B1815" s="1" t="s">
-        <v>4397</v>
+        <v>4396</v>
       </c>
     </row>
     <row r="1816" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -28265,7 +28283,7 @@
         <v>1803</v>
       </c>
       <c r="B1816" s="1" t="s">
-        <v>4397</v>
+        <v>4396</v>
       </c>
     </row>
     <row r="1817" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -28273,7 +28291,7 @@
         <v>1804</v>
       </c>
       <c r="B1817" s="1" t="s">
-        <v>4398</v>
+        <v>4397</v>
       </c>
     </row>
     <row r="1818" spans="1:2" x14ac:dyDescent="0.25">
@@ -28801,7 +28819,7 @@
         <v>1879</v>
       </c>
       <c r="B1883" s="1" t="s">
-        <v>4359</v>
+        <v>4358</v>
       </c>
     </row>
     <row r="1884" spans="1:2" x14ac:dyDescent="0.25">
@@ -28825,7 +28843,7 @@
         <v>1882</v>
       </c>
       <c r="B1886" s="1" t="s">
-        <v>4360</v>
+        <v>4359</v>
       </c>
     </row>
     <row r="1887" spans="1:2" x14ac:dyDescent="0.25">
@@ -28833,7 +28851,7 @@
         <v>1883</v>
       </c>
       <c r="B1887" s="1" t="s">
-        <v>4361</v>
+        <v>4360</v>
       </c>
     </row>
     <row r="1888" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -28841,7 +28859,7 @@
         <v>1884</v>
       </c>
       <c r="B1888" s="1" t="s">
-        <v>4362</v>
+        <v>4361</v>
       </c>
     </row>
     <row r="1889" spans="1:2" x14ac:dyDescent="0.25">
@@ -28873,7 +28891,7 @@
         <v>1888</v>
       </c>
       <c r="B1892" s="1" t="s">
-        <v>4363</v>
+        <v>4362</v>
       </c>
     </row>
     <row r="1893" spans="1:2" x14ac:dyDescent="0.25">
@@ -28897,7 +28915,7 @@
         <v>1891</v>
       </c>
       <c r="B1895" s="1" t="s">
-        <v>4364</v>
+        <v>4363</v>
       </c>
     </row>
     <row r="1896" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -28905,7 +28923,7 @@
         <v>1892</v>
       </c>
       <c r="B1896" s="1" t="s">
-        <v>4365</v>
+        <v>4364</v>
       </c>
     </row>
     <row r="1897" spans="1:2" x14ac:dyDescent="0.25">
@@ -28921,7 +28939,7 @@
         <v>1894</v>
       </c>
       <c r="B1898" s="1" t="s">
-        <v>4366</v>
+        <v>4365</v>
       </c>
     </row>
     <row r="1899" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -28929,7 +28947,7 @@
         <v>1895</v>
       </c>
       <c r="B1899" s="1" t="s">
-        <v>4367</v>
+        <v>4366</v>
       </c>
     </row>
     <row r="1900" spans="1:2" x14ac:dyDescent="0.25">
@@ -28969,7 +28987,7 @@
         <v>1900</v>
       </c>
       <c r="B1904" s="1" t="s">
-        <v>4368</v>
+        <v>4367</v>
       </c>
     </row>
     <row r="1905" spans="1:2" x14ac:dyDescent="0.25">
@@ -29009,7 +29027,7 @@
         <v>1905</v>
       </c>
       <c r="B1909" s="1" t="s">
-        <v>4369</v>
+        <v>4368</v>
       </c>
     </row>
     <row r="1910" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -29017,7 +29035,7 @@
         <v>1906</v>
       </c>
       <c r="B1910" s="1" t="s">
-        <v>4370</v>
+        <v>4369</v>
       </c>
     </row>
     <row r="1911" spans="1:2" x14ac:dyDescent="0.25">
@@ -29057,7 +29075,7 @@
         <v>1911</v>
       </c>
       <c r="B1915" s="1" t="s">
-        <v>4371</v>
+        <v>4370</v>
       </c>
     </row>
     <row r="1916" spans="1:2" x14ac:dyDescent="0.25">
@@ -29193,7 +29211,7 @@
         <v>1928</v>
       </c>
       <c r="B1932" s="1" t="s">
-        <v>4372</v>
+        <v>4371</v>
       </c>
     </row>
     <row r="1933" spans="1:2" x14ac:dyDescent="0.25">
@@ -47580,7 +47598,7 @@
         <v>2000</v>
       </c>
       <c r="B4230" s="1" t="s">
-        <v>4373</v>
+        <v>4372</v>
       </c>
       <c r="C4230" s="1"/>
       <c r="D4230" s="1"/>
@@ -47592,7 +47610,7 @@
         <v>1998</v>
       </c>
       <c r="B4231" s="1" t="s">
-        <v>4377</v>
+        <v>4376</v>
       </c>
       <c r="C4231" s="1"/>
       <c r="D4231" s="1"/>
@@ -47604,7 +47622,7 @@
         <v>2003</v>
       </c>
       <c r="B4232" s="1" t="s">
-        <v>4374</v>
+        <v>4373</v>
       </c>
       <c r="C4232" s="1"/>
       <c r="D4232" s="1"/>
@@ -47617,7 +47635,7 @@
         <v>2004</v>
       </c>
       <c r="B4233" s="1" t="s">
-        <v>4378</v>
+        <v>4377</v>
       </c>
       <c r="C4233" s="1"/>
       <c r="D4233" s="1"/>
@@ -47629,7 +47647,7 @@
         <v>1993</v>
       </c>
       <c r="B4234" s="1" t="s">
-        <v>4379</v>
+        <v>4378</v>
       </c>
       <c r="C4234" s="1"/>
       <c r="D4234" s="1"/>
@@ -47642,7 +47660,7 @@
         <v>1992</v>
       </c>
       <c r="B4235" s="1" t="s">
-        <v>4381</v>
+        <v>4380</v>
       </c>
       <c r="C4235" s="1"/>
       <c r="D4235" s="1"/>
@@ -47654,7 +47672,7 @@
         <v>1996</v>
       </c>
       <c r="B4236" s="1" t="s">
-        <v>4382</v>
+        <v>4381</v>
       </c>
       <c r="C4236" s="1"/>
       <c r="D4236" s="1"/>
@@ -47666,7 +47684,7 @@
         <v>1994</v>
       </c>
       <c r="B4237" s="1" t="s">
-        <v>4383</v>
+        <v>4382</v>
       </c>
       <c r="C4237" s="1"/>
       <c r="D4237" s="1"/>
@@ -47678,7 +47696,7 @@
         <v>2001</v>
       </c>
       <c r="B4238" s="1" t="s">
-        <v>4384</v>
+        <v>4383</v>
       </c>
       <c r="C4238" s="1"/>
       <c r="D4238" s="1"/>
@@ -47690,7 +47708,7 @@
         <v>1999</v>
       </c>
       <c r="B4239" s="1" t="s">
-        <v>4385</v>
+        <v>4384</v>
       </c>
       <c r="C4239" s="1"/>
       <c r="D4239" s="1"/>
@@ -47702,7 +47720,7 @@
         <v>1997</v>
       </c>
       <c r="B4240" s="1" t="s">
-        <v>4386</v>
+        <v>4385</v>
       </c>
       <c r="C4240" s="1"/>
       <c r="D4240" s="1"/>
@@ -47715,7 +47733,7 @@
         <v>1995</v>
       </c>
       <c r="B4241" s="1" t="s">
-        <v>4387</v>
+        <v>4386</v>
       </c>
       <c r="C4241" s="1"/>
       <c r="D4241" s="1"/>
@@ -47728,7 +47746,7 @@
         <v>2002</v>
       </c>
       <c r="B4242" s="1" t="s">
-        <v>4388</v>
+        <v>4387</v>
       </c>
       <c r="C4242" s="1"/>
       <c r="D4242" s="1"/>
@@ -47738,42 +47756,42 @@
     </row>
     <row r="4243" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4243" s="1" t="s">
-        <v>4399</v>
+        <v>4398</v>
       </c>
       <c r="B4243" s="1" t="s">
-        <v>4399</v>
+        <v>4398</v>
       </c>
     </row>
     <row r="4244" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4244" s="1" t="s">
-        <v>4400</v>
+        <v>4399</v>
       </c>
       <c r="B4244" s="1" t="s">
-        <v>4400</v>
+        <v>4399</v>
       </c>
     </row>
     <row r="4245" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4245" s="1" t="s">
-        <v>4401</v>
+        <v>4400</v>
       </c>
       <c r="B4245" s="1" t="s">
-        <v>4401</v>
+        <v>4400</v>
       </c>
     </row>
     <row r="4246" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4246" s="1" t="s">
-        <v>4402</v>
+        <v>4401</v>
       </c>
       <c r="B4246" s="1" t="s">
-        <v>4402</v>
+        <v>4401</v>
       </c>
     </row>
     <row r="4247" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4247" s="1" t="s">
-        <v>4403</v>
+        <v>4402</v>
       </c>
       <c r="B4247" s="1" t="s">
-        <v>4403</v>
+        <v>4402</v>
       </c>
     </row>
   </sheetData>

--- a/LuanNoBoc.xlsx
+++ b/LuanNoBoc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tuvi\TuVi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D2EEC4A-AA01-4445-866E-78EF0798F951}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF2CF79C-4C18-46C1-ACC1-672D98CCDF68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10637" uniqueCount="4421">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10643" uniqueCount="4427">
   <si>
     <t>Vũ Khúc và Tham Lang đồng cung tại Mùi</t>
   </si>
@@ -13296,6 +13296,24 @@
   </si>
   <si>
     <t>Cung nô bộc là cung vị khí số của cung phụ mẫu, có Hóa Khoa, chủ về cha mẹ là người phúc hậu, tâm tính bình hòa, hoặc là người hiểu biết, có học thức; còn chủ về cuộc sống của song thân ổn định. Cung nô bộc là cung vị biểu hiện của cung tử nữ, trường hợp Hóa Khoa nhập cung nô bộc: Một là, biểu hiện của con cái có ngăn nắp, lớp lang, quyền làm việc được bảo đảm; hai là, mệnh tạo hợp tác đầu tư làm ăn, phần nhiều là sự nghiệp vững chắc và hợp pháp, tuy không nhất định sẽ có lời nhiều, nhưng ít nhất trong quá trình hợp tác cũng được coi là hợp tác vui vẻ.</t>
+  </si>
+  <si>
+    <t>Xét ở góc độ lục thân, cung nô bộc cũng là cung vị đại biểu cho nhân sự; trường hợp Hóa Kị ở cung nô bộc, thường thường là kết giao bạn bè có địa vị xã hội không cao; hoặc là người có cách xử thế, cách suy nghĩ có vấn đề, khác với quan niệm thông thường của thế tục. Đồng thời do ảnh hưởng của Hóa Kị, nên đa số bạn bè sẽ mang lại phiền phức cho mệnh tạo. Vì các cung lục thân đều có hàm ý so sánh, do đó trong trường hợp Hóa Kị ở cung nô bộc, những người mệnh tạo giao du qua lại thường thường đều có địa vị xã hội hay biểu hiện năng lực kém hơn mệnh tạo. Nhưng do cung nô bộc còn là tổng hợp của "đại ngã", nên có thể thấy đẳng cấp hoặc thái độ xử sự của bản thân mệnh tạo hơi có vấn đề.</t>
+  </si>
+  <si>
+    <t>Vì lực tác động của Hóa Kị là "thu vào", gánh vác các hiện tượng do Lộc, Quyền, Khoa tạo thành; do đó, ở một mức độ nào đó, mệnh tạo sẽ kì vọng ở sự trợ giúp, hợp tác của thân hữu, hoặc kì vọng họ mang lại điều tốt cho mình. Nhưng vì Hóa Kị không cách nào "thu vào", nên mệnh tạo sẽ vì sự kì vọng không thích đáng hoặc quá độ của mình mà cảm thấy bị hụt hẫng, ở đây còn có ý tượng là, mệnh tạo trả giá quá nhiều cho kì vọng được bạn bè quan tâm, nhưng lại không được báo đáp hợp lí. Hóa Kị còn có tác dụng quấn vào, dính vào; tuy đối tượng qua lại không trợ giúp mệnh tạo, nhưng mệnh tạo lại có chỗ khó xừ, bắt buộc phải kết giao, phải quan tâm; còn có ý tượng là, hành vi của mệnh tạo bị chính kì vọng của mình ước thúc; nhưng rốt cuộc vẫn không có chỗ nào tốt, người đối xử với bạn bè như vậy nên chọn thái độ lạnh nhạt mới đúng.</t>
+  </si>
+  <si>
+    <t>Vì cung nô bộc là "tha cung", trường hợp có Hóa Kị, là không cách nào đình chỉ và "thu vào", mà còn quay lại xung cung huynh đệ. Nhung cung huynh đệ là cung vị điền trạch của cung tài bạch, có hàm nghĩa là "kho giữ tiền", bị Hóa Kị xung, là chủ về tình cảm giữa mệnh tạo với bạn bè không được hòa mục, và chẳng được gì, còn tổn thất tiền bạc, thường thấy bị tổn thương tình cảm. thêm vào đó, cung nô bộc là cung vị biểu hiện của cung tử nữ (cung chủ về hợp tác), đối tượng hợp tác làm ăn của mệnh tạo phần nhiều đều thiếu thành tín, mệnh tạo rất dễ vì chuyện hợp tác mà gánh thay cho bạn bè, thậm chí còn chịu thua thiệt, nhất là phương diện vay mượn tiền bạc, e rằng một đi không trở lại, hao tốn tiền bạc mà còn chuốc phiền phức. Do đó cung nô bộc có Hóa Kị còn chủ về hợp tác bất lợi.</t>
+  </si>
+  <si>
+    <t>Vì cung huynh đệ còn là cung vị khí số của cung tật ách, lúc Hóa Kị ở cung nô bộc xung kích cung huynh đệ, cũng là xung kích khí số của cung tật ách, có hàm nghĩa đại ngã bên ngoài xung kích đại ngã bên trong. Mệnh tạo thuộc dạng này, trong đại vận thứ nhất, sức khỏe hay tình trạng cơ thể thường thường không được lí tưởng, dễ đột ngột xảy ra sự cố về sức khỏe</t>
+  </si>
+  <si>
+    <t>Vì cung nô bộc là cung vị khí số của cung phụ mẫu, trường hợp có Hóa Kị, thường thường chủ về cha mẹ không được hòa hợp, hoặc tính trạng của cha mẹ không đơn thuần, cũng chủ về một trong hai, hoàn cảnh làm việc hay sự nghiệp khá gian khổ, do đó dẫn đến cuộc sống gia đình không vui vẻ.</t>
+  </si>
+  <si>
+    <t>Tuyến "huynh nô" còn là tuyến chủ về tai hại bất ngờ, trong đó trường hợp cung nô bộc có Hóa Kị là thuộc xu hướng tai hại bất ngờ đến từ bên ngoài, do đó mệnh tạo nên tránh đến những khu vực có nguy cơ cao, hoặc khu du lịch hay xáy ra tai nạn. Nhất là lúc Hóa Kị ở cung nô bộc của đại vận xung kích cung mệnh của thiên bàn, hoặc Hóa Kị ở cung nô bộc của đại vận lại xung kích cung nô bộc của thiên bàn, thì tai hại càng dữ dội.</t>
   </si>
 </sst>
 </file>
@@ -13706,15 +13724,16 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A2:I4247"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1581" workbookViewId="0">
-      <selection activeCell="D1583" sqref="D1583"/>
+    <sheetView tabSelected="1" topLeftCell="C1983" workbookViewId="0">
+      <selection activeCell="G1993" sqref="G1993"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="59.42578125" style="1" customWidth="1"/>
     <col min="3" max="3" width="44.85546875" customWidth="1"/>
-    <col min="4" max="8" width="34.85546875" customWidth="1"/>
+    <col min="4" max="4" width="43.28515625" customWidth="1"/>
+    <col min="5" max="8" width="34.85546875" customWidth="1"/>
     <col min="9" max="9" width="40.42578125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -29633,7 +29652,7 @@
         <v>1980</v>
       </c>
     </row>
-    <row r="1985" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1985" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1985" s="1" t="s">
         <v>1981</v>
       </c>
@@ -29641,7 +29660,7 @@
         <v>1981</v>
       </c>
     </row>
-    <row r="1986" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1986" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1986" s="1" t="s">
         <v>1982</v>
       </c>
@@ -29649,7 +29668,7 @@
         <v>1982</v>
       </c>
     </row>
-    <row r="1987" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1987" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1987" s="1" t="s">
         <v>1983</v>
       </c>
@@ -29657,7 +29676,7 @@
         <v>1983</v>
       </c>
     </row>
-    <row r="1988" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1988" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1988" s="1" t="s">
         <v>1984</v>
       </c>
@@ -29665,7 +29684,7 @@
         <v>1984</v>
       </c>
     </row>
-    <row r="1989" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1989" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1989" s="1" t="s">
         <v>1985</v>
       </c>
@@ -29673,7 +29692,7 @@
         <v>1985</v>
       </c>
     </row>
-    <row r="1990" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1990" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1990" s="1" t="s">
         <v>1986</v>
       </c>
@@ -29681,7 +29700,7 @@
         <v>1986</v>
       </c>
     </row>
-    <row r="1991" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1991" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1991" s="1" t="s">
         <v>1987</v>
       </c>
@@ -29689,7 +29708,7 @@
         <v>1987</v>
       </c>
     </row>
-    <row r="1992" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1992" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1992" s="1" t="s">
         <v>1988</v>
       </c>
@@ -29697,7 +29716,7 @@
         <v>1988</v>
       </c>
     </row>
-    <row r="1993" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1993" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1993" s="1" t="s">
         <v>1989</v>
       </c>
@@ -29705,7 +29724,7 @@
         <v>1989</v>
       </c>
     </row>
-    <row r="1994" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1994" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1994" s="1" t="s">
         <v>1990</v>
       </c>
@@ -29713,7 +29732,7 @@
         <v>1990</v>
       </c>
     </row>
-    <row r="1995" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1995" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1995" s="1" t="s">
         <v>1991</v>
       </c>
@@ -29721,15 +29740,33 @@
         <v>1991</v>
       </c>
     </row>
-    <row r="1996" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="1996" spans="1:8" ht="330" x14ac:dyDescent="0.25">
       <c r="A1996" s="1" t="s">
         <v>4145</v>
       </c>
       <c r="B1996" s="1" t="s">
         <v>4146</v>
       </c>
-    </row>
-    <row r="1997" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1996" s="1" t="s">
+        <v>4421</v>
+      </c>
+      <c r="D1996" s="1" t="s">
+        <v>4422</v>
+      </c>
+      <c r="E1996" s="1" t="s">
+        <v>4423</v>
+      </c>
+      <c r="F1996" s="1" t="s">
+        <v>4424</v>
+      </c>
+      <c r="G1996" s="1" t="s">
+        <v>4425</v>
+      </c>
+      <c r="H1996" s="1" t="s">
+        <v>4426</v>
+      </c>
+    </row>
+    <row r="1997" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1997" t="s">
         <v>2075</v>
       </c>
@@ -29737,7 +29774,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="1998" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1998" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1998" t="s">
         <v>2076</v>
       </c>
@@ -29745,7 +29782,7 @@
         <v>2076</v>
       </c>
     </row>
-    <row r="1999" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1999" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1999" t="s">
         <v>2077</v>
       </c>
@@ -29753,7 +29790,7 @@
         <v>2077</v>
       </c>
     </row>
-    <row r="2000" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2000" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2000" t="s">
         <v>2078</v>
       </c>
